--- a/fusion_metrics.xlsx
+++ b/fusion_metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\CE_25-2\DF - 742\project_alt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A980881B-69B8-4C7C-BD2B-5CDF877B480A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5D5315-DBDE-462A-B41C-E728591A076D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,28 +87,31 @@
     <t>Avg MSE</t>
   </si>
   <si>
-    <t>brovey_post.tif</t>
-  </si>
-  <si>
-    <t>brovey_pre.tif</t>
-  </si>
-  <si>
-    <t>pca_post.tif</t>
-  </si>
-  <si>
-    <t>pca_pre.tif</t>
-  </si>
-  <si>
-    <t>wavelet_post.tif</t>
-  </si>
-  <si>
-    <t>wavelet_pre.tif</t>
+    <t>brovey_post</t>
+  </si>
+  <si>
+    <t>brovey_pre</t>
+  </si>
+  <si>
+    <t>pca_post</t>
+  </si>
+  <si>
+    <t>pca_pre</t>
+  </si>
+  <si>
+    <t>wavelet_post</t>
+  </si>
+  <si>
+    <t>wavelet_pre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0000E+00"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,26 +122,24 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="162"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="162"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="2">
@@ -299,35 +300,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -337,46 +339,35 @@
   <dxfs count="19">
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -394,12 +385,14 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <right style="thin">
@@ -414,12 +407,14 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <right style="thin">
@@ -434,12 +429,14 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <right style="thin">
@@ -454,12 +451,14 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
@@ -479,12 +478,14 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -502,12 +503,14 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <right style="thin">
@@ -522,12 +525,14 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <right style="thin">
@@ -542,12 +547,14 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <right style="thin">
@@ -562,12 +569,14 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <right style="thin">
@@ -582,12 +591,14 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <right style="thin">
@@ -602,12 +613,14 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <right style="thin">
@@ -622,12 +635,14 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <right style="thin">
@@ -642,12 +657,14 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <right style="thin">
@@ -662,12 +679,14 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
@@ -687,11 +706,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -703,6 +723,22 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -750,25 +786,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9A0F2DC-EEB8-4CBD-9EB2-63FDA84B787D}" name="fusion_metrics" displayName="fusion_metrics" ref="A1:P7" tableType="queryTable" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9A0F2DC-EEB8-4CBD-9EB2-63FDA84B787D}" name="fusion_metrics" displayName="fusion_metrics" ref="A1:P7" tableType="queryTable" totalsRowShown="0" headerRowDxfId="0" dataDxfId="17" headerRowBorderDxfId="18">
   <autoFilter ref="A1:P7" xr:uid="{C9A0F2DC-EEB8-4CBD-9EB2-63FDA84B787D}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{8840DB42-4557-4469-BFAE-2E1E99101495}" uniqueName="1" name="Fusion File" queryTableFieldId="1" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{8960448A-4B24-49CC-AF1C-DA8C0DF3EBE3}" uniqueName="2" name="SSIM Pre" queryTableFieldId="2" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{13EE4415-5A0E-4B5A-9953-8F1238951C23}" uniqueName="3" name="PSNR Pre" queryTableFieldId="3" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{ABC6DF0B-5022-4FB6-A7D6-C676C0803DAF}" uniqueName="4" name="RMSE Pre" queryTableFieldId="4" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{2ECD1BE6-896E-422F-B5D1-13ADBDF672BA}" uniqueName="5" name="MAE Pre" queryTableFieldId="5" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{EA179289-673C-452F-8E9D-18D40C92448E}" uniqueName="6" name="MSE Pre" queryTableFieldId="6" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{41723BEA-09DA-408E-AA22-705013F6DA17}" uniqueName="7" name="SSIM Post" queryTableFieldId="7" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{17B1DA48-6825-4445-9E07-61809D64B872}" uniqueName="8" name="PSNR Post" queryTableFieldId="8" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{7C5D1688-705B-435C-ABA7-8B762AFD5134}" uniqueName="9" name="RMSE Post" queryTableFieldId="9" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{C6B310A4-FEB0-435A-A47E-E24E7E580555}" uniqueName="10" name="MAE Post" queryTableFieldId="10" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{192B1998-9A76-44A3-81B1-57340D68BC4C}" uniqueName="11" name="MSE Post" queryTableFieldId="11" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{522C987B-F4B4-44A4-B875-B9BDC0D13B31}" uniqueName="12" name="Avg SSIM" queryTableFieldId="12" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{1445A063-A0BB-4C3F-B870-CA7CBE7D9629}" uniqueName="13" name="Avg PSNR" queryTableFieldId="13" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{4D662324-2026-40B8-ABCE-102DC2BE6487}" uniqueName="14" name="Avg RMSE" queryTableFieldId="14" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{075188BF-4837-4857-A9B4-34CD3BBC0B9D}" uniqueName="15" name="Avg MAE" queryTableFieldId="15" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{870F5CCE-FAB9-4824-A10C-E3C8A046CFED}" uniqueName="16" name="Avg MSE" queryTableFieldId="16" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{8840DB42-4557-4469-BFAE-2E1E99101495}" uniqueName="1" name="Fusion File" queryTableFieldId="1" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{8960448A-4B24-49CC-AF1C-DA8C0DF3EBE3}" uniqueName="2" name="SSIM Pre" queryTableFieldId="2" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{13EE4415-5A0E-4B5A-9953-8F1238951C23}" uniqueName="3" name="PSNR Pre" queryTableFieldId="3" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{ABC6DF0B-5022-4FB6-A7D6-C676C0803DAF}" uniqueName="4" name="RMSE Pre" queryTableFieldId="4" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{2ECD1BE6-896E-422F-B5D1-13ADBDF672BA}" uniqueName="5" name="MAE Pre" queryTableFieldId="5" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{EA179289-673C-452F-8E9D-18D40C92448E}" uniqueName="6" name="MSE Pre" queryTableFieldId="6" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{41723BEA-09DA-408E-AA22-705013F6DA17}" uniqueName="7" name="SSIM Post" queryTableFieldId="7" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{17B1DA48-6825-4445-9E07-61809D64B872}" uniqueName="8" name="PSNR Post" queryTableFieldId="8" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{7C5D1688-705B-435C-ABA7-8B762AFD5134}" uniqueName="9" name="RMSE Post" queryTableFieldId="9" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{C6B310A4-FEB0-435A-A47E-E24E7E580555}" uniqueName="10" name="MAE Post" queryTableFieldId="10" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{192B1998-9A76-44A3-81B1-57340D68BC4C}" uniqueName="11" name="MSE Post" queryTableFieldId="11" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{522C987B-F4B4-44A4-B875-B9BDC0D13B31}" uniqueName="12" name="Avg SSIM" queryTableFieldId="12" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{1445A063-A0BB-4C3F-B870-CA7CBE7D9629}" uniqueName="13" name="Avg PSNR" queryTableFieldId="13" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{4D662324-2026-40B8-ABCE-102DC2BE6487}" uniqueName="14" name="Avg RMSE" queryTableFieldId="14" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{075188BF-4837-4857-A9B4-34CD3BBC0B9D}" uniqueName="15" name="Avg MAE" queryTableFieldId="15" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{870F5CCE-FAB9-4824-A10C-E3C8A046CFED}" uniqueName="16" name="Avg MSE" queryTableFieldId="16" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1040,366 +1076,364 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="7" customWidth="1"/>
+    <col min="2" max="16" width="12.7109375" style="7" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7">
-        <v>2.0733965743530028E+16</v>
-      </c>
-      <c r="C2" s="8">
-        <v>1.0900011199127284E+16</v>
-      </c>
-      <c r="D2" s="8">
-        <v>2851014591553924</v>
-      </c>
-      <c r="E2" s="8">
-        <v>2786311404626108</v>
-      </c>
-      <c r="F2" s="8">
-        <v>8128284201253388</v>
-      </c>
-      <c r="G2" s="8">
-        <v>1.8629376852482552E+16</v>
-      </c>
-      <c r="H2" s="8">
-        <v>1.0623291930514916E+16</v>
-      </c>
-      <c r="I2" s="8">
-        <v>2.9433059167816856E+16</v>
-      </c>
-      <c r="J2" s="8">
-        <v>2887586206624508</v>
-      </c>
-      <c r="K2" s="9">
-        <v>8663049719762078</v>
-      </c>
-      <c r="L2" s="7">
-        <v>1968167129800629</v>
-      </c>
-      <c r="M2" s="8">
-        <v>107616515648211</v>
-      </c>
-      <c r="N2" s="8">
-        <v>2897160254167805</v>
-      </c>
-      <c r="O2" s="8">
-        <v>2836948805625308</v>
-      </c>
-      <c r="P2" s="9">
-        <v>8395666960507733</v>
+      <c r="B2" s="9">
+        <v>0.2073396574353</v>
+      </c>
+      <c r="C2" s="10">
+        <v>10.900011199127199</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.28510145915539198</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.27863114046261001</v>
+      </c>
+      <c r="F2" s="10">
+        <v>8.1282842012533801E-2</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.18629376852482499</v>
+      </c>
+      <c r="H2" s="10">
+        <v>10.623291930514901</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0.294330591678168</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0.28875862066245001</v>
+      </c>
+      <c r="K2" s="11">
+        <v>8.6630497197620698E-2</v>
+      </c>
+      <c r="L2" s="9">
+        <v>0.19681671298006201</v>
+      </c>
+      <c r="M2" s="10">
+        <v>10.761651564821101</v>
+      </c>
+      <c r="N2" s="10">
+        <v>0.28971602541677999</v>
+      </c>
+      <c r="O2" s="10">
+        <v>0.28369488056253001</v>
+      </c>
+      <c r="P2" s="11">
+        <v>8.3956669605077305E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="7">
-        <v>2.2611037784003704E+16</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1.1789371932811284E+16</v>
-      </c>
-      <c r="D3" s="8">
-        <v>2.5735428477695168E+16</v>
-      </c>
-      <c r="E3" s="8">
-        <v>2.5029915418918024E+16</v>
-      </c>
-      <c r="F3" s="8">
-        <v>6623122789305633</v>
-      </c>
-      <c r="G3" s="8">
-        <v>2.0234141993200936E+16</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1.1488436291721848E+16</v>
-      </c>
-      <c r="I3" s="8">
-        <v>2.6642696982547264E+16</v>
-      </c>
-      <c r="J3" s="8">
-        <v>2.6038363444140756E+16</v>
-      </c>
-      <c r="K3" s="9">
-        <v>7098333025038331</v>
-      </c>
-      <c r="L3" s="7">
-        <v>2142258988860232</v>
-      </c>
-      <c r="M3" s="8">
-        <v>1.1638904112266566E+16</v>
-      </c>
-      <c r="N3" s="8">
-        <v>2.6189062730121216E+16</v>
-      </c>
-      <c r="O3" s="8">
-        <v>2553413943152939</v>
-      </c>
-      <c r="P3" s="9">
-        <v>6860727907171982</v>
+      <c r="B3" s="9">
+        <v>0.22611037784003701</v>
+      </c>
+      <c r="C3" s="10">
+        <v>11.7893719328112</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.25735428477695099</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.25029915418917997</v>
+      </c>
+      <c r="F3" s="10">
+        <v>6.6231227893056299E-2</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.20234141993200899</v>
+      </c>
+      <c r="H3" s="10">
+        <v>11.488436291721801</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0.26642696982547198</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0.260383634441407</v>
+      </c>
+      <c r="K3" s="11">
+        <v>7.0983330250383295E-2</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0.214225898886023</v>
+      </c>
+      <c r="M3" s="10">
+        <v>11.6389041122665</v>
+      </c>
+      <c r="N3" s="10">
+        <v>0.26189062730121199</v>
+      </c>
+      <c r="O3" s="10">
+        <v>0.25534139431529301</v>
+      </c>
+      <c r="P3" s="11">
+        <v>6.8607279071719804E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="7">
-        <v>5029977474814683</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1.4672355891118188E+16</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1.8466398591767808E+16</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1.8222732301795368E+16</v>
-      </c>
-      <c r="F4" s="8">
-        <v>341007876950044</v>
-      </c>
-      <c r="G4" s="8">
-        <v>4679652382491797</v>
-      </c>
-      <c r="H4" s="8">
-        <v>1.4261307335301464E+16</v>
-      </c>
-      <c r="I4" s="8">
-        <v>1.9361305300933328E+16</v>
-      </c>
-      <c r="J4" s="8">
-        <v>1.9195869955030816E+16</v>
-      </c>
-      <c r="K4" s="9">
-        <v>3.7486014295594896E+16</v>
-      </c>
-      <c r="L4" s="7">
-        <v>485481492865324</v>
-      </c>
-      <c r="M4" s="8">
-        <v>1.4466831613209828E+16</v>
-      </c>
-      <c r="N4" s="8">
-        <v>1.8913851946350568E+16</v>
-      </c>
-      <c r="O4" s="8">
-        <v>1.8709301128413092E+16</v>
-      </c>
-      <c r="P4" s="9">
-        <v>3579340099529965</v>
+      <c r="B4" s="9">
+        <v>0.50299774748146797</v>
+      </c>
+      <c r="C4" s="10">
+        <v>14.6723558911181</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.18466398591767799</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.182227323017953</v>
+      </c>
+      <c r="F4" s="10">
+        <v>3.4100787695004402E-2</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.46796523824917902</v>
+      </c>
+      <c r="H4" s="10">
+        <v>14.261307335301399</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.19361305300933301</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.191958699550308</v>
+      </c>
+      <c r="K4" s="11">
+        <v>3.7486014295594797E-2</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0.48548149286532399</v>
+      </c>
+      <c r="M4" s="10">
+        <v>14.4668316132098</v>
+      </c>
+      <c r="N4" s="10">
+        <v>0.18913851946350499</v>
+      </c>
+      <c r="O4" s="10">
+        <v>0.18709301128413</v>
+      </c>
+      <c r="P4" s="11">
+        <v>3.5793400995299603E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="7">
-        <v>5310661200540295</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1.5231655467492044E+16</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1.7314789919769574E+16</v>
-      </c>
-      <c r="E5" s="8">
-        <v>1.7100793673407488E+16</v>
-      </c>
-      <c r="F5" s="8">
-        <v>2.9980194996575408E+16</v>
-      </c>
-      <c r="G5" s="8">
-        <v>469309112763421</v>
-      </c>
-      <c r="H5" s="8">
-        <v>1.473627657141146E+16</v>
-      </c>
-      <c r="I5" s="8">
-        <v>1833100059158523</v>
-      </c>
-      <c r="J5" s="8">
-        <v>1809397531894385</v>
-      </c>
-      <c r="K5" s="9">
-        <v>3.3602558268869808E+16</v>
-      </c>
-      <c r="L5" s="7">
-        <v>5001876164087253</v>
-      </c>
-      <c r="M5" s="8">
-        <v>1.4983966019451752E+16</v>
-      </c>
-      <c r="N5" s="8">
-        <v>178228952556774</v>
-      </c>
-      <c r="O5" s="8">
-        <v>1759738449617567</v>
-      </c>
-      <c r="P5" s="9">
-        <v>3179137663272261</v>
+      <c r="B5" s="9">
+        <v>0.53106612005402898</v>
+      </c>
+      <c r="C5" s="10">
+        <v>15.231655467492001</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.17314789919769499</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.171007936734074</v>
+      </c>
+      <c r="F5" s="10">
+        <v>2.99801949965754E-2</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.46930911276342102</v>
+      </c>
+      <c r="H5" s="10">
+        <v>14.7362765714114</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.183310005915852</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.180939753189438</v>
+      </c>
+      <c r="K5" s="11">
+        <v>3.3602558268869799E-2</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0.500187616408725</v>
+      </c>
+      <c r="M5" s="10">
+        <v>14.983966019451699</v>
+      </c>
+      <c r="N5" s="10">
+        <v>0.17822895255677401</v>
+      </c>
+      <c r="O5" s="10">
+        <v>0.175973844961756</v>
+      </c>
+      <c r="P5" s="11">
+        <v>3.17913766327226E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="7">
-        <v>7299777257185793</v>
-      </c>
-      <c r="C6" s="8">
-        <v>2.3419209153735064E+16</v>
-      </c>
-      <c r="D6" s="8">
-        <v>674589445961262</v>
-      </c>
-      <c r="E6" s="8">
-        <v>634814897195334</v>
-      </c>
-      <c r="F6" s="8">
-        <v>4.5507092060232248E+16</v>
-      </c>
-      <c r="G6" s="8">
-        <v>7192169880503713</v>
-      </c>
-      <c r="H6" s="8">
-        <v>2.2752683096308696E+16</v>
-      </c>
-      <c r="I6" s="8">
-        <v>7283931370211852</v>
-      </c>
-      <c r="J6" s="8">
-        <v>7044010883394602</v>
-      </c>
-      <c r="K6" s="9">
-        <v>530556562059563</v>
-      </c>
-      <c r="L6" s="7">
-        <v>7245973568844752</v>
-      </c>
-      <c r="M6" s="8">
-        <v>2.3085946125021876E+16</v>
-      </c>
-      <c r="N6" s="8">
-        <v>7014912914912236</v>
-      </c>
-      <c r="O6" s="8">
-        <v>669607992767397</v>
-      </c>
-      <c r="P6" s="9">
-        <v>4.9281374133094272E+16</v>
+      <c r="B6" s="9">
+        <v>0.729977725718579</v>
+      </c>
+      <c r="C6" s="10">
+        <v>23.419209153735</v>
+      </c>
+      <c r="D6" s="10">
+        <v>6.7458944596126197E-2</v>
+      </c>
+      <c r="E6" s="10">
+        <v>6.3481489719533393E-2</v>
+      </c>
+      <c r="F6" s="10">
+        <v>4.5507092060232202E-3</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.71921698805037104</v>
+      </c>
+      <c r="H6" s="10">
+        <v>22.752683096308601</v>
+      </c>
+      <c r="I6" s="10">
+        <v>7.2839313702118505E-2</v>
+      </c>
+      <c r="J6" s="10">
+        <v>7.0440108833945997E-2</v>
+      </c>
+      <c r="K6" s="11">
+        <v>5.3055656205956304E-3</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0.72459735688447502</v>
+      </c>
+      <c r="M6" s="10">
+        <v>23.085946125021799</v>
+      </c>
+      <c r="N6" s="10">
+        <v>7.0149129149122302E-2</v>
+      </c>
+      <c r="O6" s="10">
+        <v>6.6960799276739702E-2</v>
+      </c>
+      <c r="P6" s="11">
+        <v>4.9281374133094196E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="11">
-        <v>5600084705767107</v>
-      </c>
-      <c r="C7" s="12">
-        <v>1568039066098461</v>
-      </c>
-      <c r="D7" s="12">
-        <v>1.6442977667801652E+16</v>
-      </c>
-      <c r="E7" s="12">
-        <v>1.6312806560256668E+16</v>
-      </c>
-      <c r="F7" s="12">
-        <v>2.7037151458382392E+16</v>
-      </c>
-      <c r="G7" s="12">
-        <v>4.8775236051188328E+16</v>
-      </c>
-      <c r="H7" s="12">
-        <v>1.5110021711111932E+16</v>
-      </c>
-      <c r="I7" s="12">
-        <v>1.7558965051826124E+16</v>
-      </c>
-      <c r="J7" s="12">
-        <v>1.7339691029753292E+16</v>
-      </c>
-      <c r="K7" s="13">
-        <v>3083172536912512</v>
-      </c>
-      <c r="L7" s="11">
-        <v>523880415544297</v>
-      </c>
-      <c r="M7" s="12">
-        <v>1.5395206186048272E+16</v>
-      </c>
-      <c r="N7" s="12">
-        <v>1.7000971359813888E+16</v>
-      </c>
-      <c r="O7" s="12">
-        <v>1682624879500498</v>
-      </c>
-      <c r="P7" s="13">
-        <v>2.8934438413753756E+16</v>
+      <c r="B7" s="12">
+        <v>0.56000847057670999</v>
+      </c>
+      <c r="C7" s="13">
+        <v>15.6803906609846</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.164429776678016</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.16312806560256601</v>
+      </c>
+      <c r="F7" s="13">
+        <v>2.70371514583823E-2</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.48775236051188298</v>
+      </c>
+      <c r="H7" s="13">
+        <v>15.1100217111119</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.175589650518261</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.17339691029753199</v>
+      </c>
+      <c r="K7" s="14">
+        <v>3.0831725369125099E-2</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0.52388041554429698</v>
+      </c>
+      <c r="M7" s="13">
+        <v>15.395206186048201</v>
+      </c>
+      <c r="N7" s="13">
+        <v>0.17000971359813799</v>
+      </c>
+      <c r="O7" s="13">
+        <v>0.168262487950049</v>
+      </c>
+      <c r="P7" s="14">
+        <v>2.8934438413753701E-2</v>
       </c>
     </row>
   </sheetData>
